--- a/Alg/Time_Usage.xlsx
+++ b/Alg/Time_Usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Introduction_to_Machine_Learning\Alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7302B8-FB09-4AF2-9238-832CEEED290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6C17F-090A-4A40-B2C8-760295DA098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -506,6 +506,24 @@
       <c r="B3">
         <v>0.24707999999999999</v>
       </c>
+      <c r="C3">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.61172000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.64356000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.87251999999999996</v>
+      </c>
+      <c r="G3">
+        <v>1.0907199999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.2477799999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -514,6 +532,24 @@
       <c r="B4">
         <v>116.637</v>
       </c>
+      <c r="C4">
+        <v>288.28500000000003</v>
+      </c>
+      <c r="D4">
+        <v>596.89400000000001</v>
+      </c>
+      <c r="E4">
+        <v>994.20500000000004</v>
+      </c>
+      <c r="F4">
+        <v>1234.79</v>
+      </c>
+      <c r="G4">
+        <v>1743.61</v>
+      </c>
+      <c r="H4">
+        <v>2279.04</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -522,6 +558,24 @@
       <c r="B5">
         <v>1.4280200000000001</v>
       </c>
+      <c r="C5">
+        <v>2.4432999999999998</v>
+      </c>
+      <c r="D5">
+        <v>3.5508199999999999</v>
+      </c>
+      <c r="E5">
+        <v>4.5161800000000003</v>
+      </c>
+      <c r="F5">
+        <v>5.3815799999999996</v>
+      </c>
+      <c r="G5">
+        <v>6.0322800000000001</v>
+      </c>
+      <c r="H5">
+        <v>7.4674800000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -530,6 +584,24 @@
       <c r="B6">
         <v>1.0852599999999999</v>
       </c>
+      <c r="C6">
+        <v>2.0516200000000002</v>
+      </c>
+      <c r="D6">
+        <v>2.79684</v>
+      </c>
+      <c r="E6">
+        <v>3.4044599999999998</v>
+      </c>
+      <c r="F6">
+        <v>4.3172199999999998</v>
+      </c>
+      <c r="G6">
+        <v>4.7414800000000001</v>
+      </c>
+      <c r="H6">
+        <v>5.9724199999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -537,6 +609,24 @@
       </c>
       <c r="B7">
         <v>1.0290600000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.9156200000000001</v>
+      </c>
+      <c r="D7">
+        <v>2.6124000000000001</v>
+      </c>
+      <c r="E7">
+        <v>3.20722</v>
+      </c>
+      <c r="F7">
+        <v>4.0003799999999998</v>
+      </c>
+      <c r="G7">
+        <v>4.6131000000000002</v>
+      </c>
+      <c r="H7">
+        <v>5.7079399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Alg/Time_Usage.xlsx
+++ b/Alg/Time_Usage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Introduction_to_Machine_Learning\Alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6C17F-090A-4A40-B2C8-760295DA098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5366E9-5BAA-47F2-BF90-797210736886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -524,6 +524,9 @@
       <c r="H3">
         <v>1.2477799999999999</v>
       </c>
+      <c r="I3">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -550,6 +553,9 @@
       <c r="H4">
         <v>2279.04</v>
       </c>
+      <c r="I4">
+        <v>2807.06</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -576,6 +582,9 @@
       <c r="H5">
         <v>7.4674800000000001</v>
       </c>
+      <c r="I5">
+        <v>8.1416599999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -602,6 +611,9 @@
       <c r="H6">
         <v>5.9724199999999996</v>
       </c>
+      <c r="I6">
+        <v>6.1572399999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -627,6 +639,9 @@
       </c>
       <c r="H7">
         <v>5.7079399999999998</v>
+      </c>
+      <c r="I7">
+        <v>6.1425400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Alg/Time_Usage.xlsx
+++ b/Alg/Time_Usage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Introduction_to_Machine_Learning\Alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5366E9-5BAA-47F2-BF90-797210736886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E5C85A-9BBB-4686-AE89-181DEA3BFEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,26 +32,6 @@
   </si>
   <si>
     <t>Execution times (times)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Randomized time usage (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group of 3 time usage (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group of 5 time usage (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group of 7 time usage (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group of 9 time usage (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +72,26 @@
   </si>
   <si>
     <t>1 * 10e8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Randomized time usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group of 3 time usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group of 5 time usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group of 7 time usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group of 9 time usage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,6 +152,2786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Randomized time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24707999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61172000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87251999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0907199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2477799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6928399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7217199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-ABE8-4F70-8A53-D7308B0BAF55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 3 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>116.637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.28500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994.20500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1234.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1743.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2279.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2807.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3390.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3675.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-ABE8-4F70-8A53-D7308B0BAF55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 5 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4280200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4432999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5508199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5161800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3815799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0322800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4674800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1416599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6728799999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5892400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-ABE8-4F70-8A53-D7308B0BAF55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 7 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0852599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0516200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.79684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4044599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3172199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7414800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9724199999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1572399999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6353799999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2953999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-ABE8-4F70-8A53-D7308B0BAF55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 9 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0290600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9156200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6124000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.20722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0003799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6131000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7079399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1425400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.52264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.22966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-ABE8-4F70-8A53-D7308B0BAF55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="345021151"/>
+        <c:axId val="345024031"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Execution times (times)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Execution times (times)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Randomized time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$K$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>0.24707999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.43530000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.61172000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.64356000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.87251999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0907199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2477799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.41</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6928399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7217199999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of 3 time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>116.637</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>288.28500000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>596.89400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>994.20500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1234.79</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1743.61</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2279.04</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2807.06</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3390.56</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3675.29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of 5 time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$5:$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1.4280200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.4432999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.5508199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.5161800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.3815799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.0322800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.4674800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.1416599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.6728799999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.5892400000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of 7 time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1.0852599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0516200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.79684</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.4044599999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.3172199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.7414800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.9724199999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.1572399999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.6353799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2953999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of 9 time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1.0290600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.9156200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.6124000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.20722</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0003799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6131000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.7079399999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.1425400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.52264</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.22966</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-ABE8-4F70-8A53-D7308B0BAF55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="345021151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>N (10^7)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345024031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345024031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345021151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Randomized time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24707999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61172000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87251999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0907199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2477799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6928399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7217199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB46-486D-B9AB-A8DE1577CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 5 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4280200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4432999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5508199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5161800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3815799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0322800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4674800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1416599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6728799999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5892400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB46-486D-B9AB-A8DE1577CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 7 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0852599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0516200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.79684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4044599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3172199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7414800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9724199999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1572399999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6353799999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2953999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB46-486D-B9AB-A8DE1577CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group of 9 time usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0290600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9156200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6124000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.20722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0003799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6131000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7079399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1425400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.52264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.22966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB46-486D-B9AB-A8DE1577CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="345021151"/>
+        <c:axId val="345024031"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Execution times (times)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FB46-486D-B9AB-A8DE1577CC43}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Group of 3 time usage</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>116.637</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>288.28500000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>596.89400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>994.20500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1234.79</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1743.61</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2279.04</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2807.06</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3390.56</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3675.29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FB46-486D-B9AB-A8DE1577CC43}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="345021151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N (10^7)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345024031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345024031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345021151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mn-lt"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFB87B5-6764-4F2E-E259-C97F1E0AEA77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E19DD5-5585-41D9-BBA8-19885C53A563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +3200,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -434,34 +3214,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -501,7 +3281,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.24707999999999999</v>
@@ -526,11 +3306,17 @@
       </c>
       <c r="I3">
         <v>1.41</v>
+      </c>
+      <c r="J3">
+        <v>1.6928399999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.7217199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>116.637</v>
@@ -555,11 +3341,17 @@
       </c>
       <c r="I4">
         <v>2807.06</v>
+      </c>
+      <c r="J4">
+        <v>3390.56</v>
+      </c>
+      <c r="K4">
+        <v>3675.29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1.4280200000000001</v>
@@ -584,11 +3376,17 @@
       </c>
       <c r="I5">
         <v>8.1416599999999999</v>
+      </c>
+      <c r="J5">
+        <v>8.6728799999999993</v>
+      </c>
+      <c r="K5">
+        <v>9.5892400000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1.0852599999999999</v>
@@ -613,11 +3411,17 @@
       </c>
       <c r="I6">
         <v>6.1572399999999998</v>
+      </c>
+      <c r="J6">
+        <v>6.6353799999999996</v>
+      </c>
+      <c r="K6">
+        <v>7.2953999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1.0290600000000001</v>
@@ -642,10 +3446,17 @@
       </c>
       <c r="I7">
         <v>6.1425400000000003</v>
+      </c>
+      <c r="J7">
+        <v>6.52264</v>
+      </c>
+      <c r="K7">
+        <v>7.22966</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Alg/Time_Usage.xlsx
+++ b/Alg/Time_Usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Introduction_to_Machine_Learning\Alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E5C85A-9BBB-4686-AE89-181DEA3BFEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD7F47-436A-4944-83FB-FD21393D3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Array size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,7 +600,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2</c15:sqref>
@@ -641,7 +641,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$2:$K$2</c15:sqref>
@@ -685,7 +685,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -698,7 +698,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -739,7 +739,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$K$3</c15:sqref>
@@ -783,7 +783,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -796,7 +796,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -837,7 +837,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$K$4</c15:sqref>
@@ -881,7 +881,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -894,7 +894,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -935,7 +935,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$5:$K$5</c15:sqref>
@@ -979,7 +979,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -992,7 +992,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6</c15:sqref>
@@ -1033,7 +1033,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$6:$K$6</c15:sqref>
@@ -1077,7 +1077,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -1090,7 +1090,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$7</c15:sqref>
@@ -1131,7 +1131,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$7:$K$7</c15:sqref>
@@ -1175,7 +1175,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-ABE8-4F70-8A53-D7308B0BAF55}"/>
                   </c:ext>
@@ -1914,7 +1914,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -1955,7 +1955,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$K$4</c15:sqref>
@@ -1999,7 +1999,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FB46-486D-B9AB-A8DE1577CC43}"/>
                   </c:ext>
@@ -3197,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3454,6 +3454,251 @@
         <v>7.22966</v>
       </c>
     </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.11953999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.61172000000000004</v>
+      </c>
+      <c r="E30">
+        <v>0.64356000000000002</v>
+      </c>
+      <c r="F30">
+        <v>0.87251999999999996</v>
+      </c>
+      <c r="G30">
+        <v>1.0907199999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.2477799999999999</v>
+      </c>
+      <c r="I30">
+        <v>1.41</v>
+      </c>
+      <c r="J30">
+        <v>1.6928399999999999</v>
+      </c>
+      <c r="K30">
+        <v>1.7217199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>1.4458200000000001</v>
+      </c>
+      <c r="C31">
+        <v>23.014299999999999</v>
+      </c>
+      <c r="D31">
+        <v>596.89400000000001</v>
+      </c>
+      <c r="E31">
+        <v>994.20500000000004</v>
+      </c>
+      <c r="F31">
+        <v>1234.79</v>
+      </c>
+      <c r="G31">
+        <v>1743.61</v>
+      </c>
+      <c r="H31">
+        <v>2279.04</v>
+      </c>
+      <c r="I31">
+        <v>2807.06</v>
+      </c>
+      <c r="J31">
+        <v>3390.56</v>
+      </c>
+      <c r="K31">
+        <v>3675.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>0.35468</v>
+      </c>
+      <c r="C32">
+        <v>0.78491999999999995</v>
+      </c>
+      <c r="D32">
+        <v>3.5508199999999999</v>
+      </c>
+      <c r="E32">
+        <v>4.5161800000000003</v>
+      </c>
+      <c r="F32">
+        <v>5.3815799999999996</v>
+      </c>
+      <c r="G32">
+        <v>6.0322800000000001</v>
+      </c>
+      <c r="H32">
+        <v>7.4674800000000001</v>
+      </c>
+      <c r="I32">
+        <v>8.1416599999999999</v>
+      </c>
+      <c r="J32">
+        <v>8.6728799999999993</v>
+      </c>
+      <c r="K32">
+        <v>9.5892400000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0.29765999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.63126000000000004</v>
+      </c>
+      <c r="D33">
+        <v>2.79684</v>
+      </c>
+      <c r="E33">
+        <v>3.4044599999999998</v>
+      </c>
+      <c r="F33">
+        <v>4.3172199999999998</v>
+      </c>
+      <c r="G33">
+        <v>4.7414800000000001</v>
+      </c>
+      <c r="H33">
+        <v>5.9724199999999996</v>
+      </c>
+      <c r="I33">
+        <v>6.1572399999999998</v>
+      </c>
+      <c r="J33">
+        <v>6.6353799999999996</v>
+      </c>
+      <c r="K33">
+        <v>7.2953999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0.28927999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.60377999999999998</v>
+      </c>
+      <c r="D34">
+        <v>2.6124000000000001</v>
+      </c>
+      <c r="E34">
+        <v>3.20722</v>
+      </c>
+      <c r="F34">
+        <v>4.0003799999999998</v>
+      </c>
+      <c r="G34">
+        <v>4.6131000000000002</v>
+      </c>
+      <c r="H34">
+        <v>5.7079399999999998</v>
+      </c>
+      <c r="I34">
+        <v>6.1425400000000003</v>
+      </c>
+      <c r="J34">
+        <v>6.52264</v>
+      </c>
+      <c r="K34">
+        <v>7.22966</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Alg/Time_Usage.xlsx
+++ b/Alg/Time_Usage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Introduction_to_Machine_Learning\Alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBD7F47-436A-4944-83FB-FD21393D3D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA0D739-0905-459E-A20B-0D9F7719BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3199,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3535,7 +3535,7 @@
         <v>0.11953999999999999</v>
       </c>
       <c r="D30">
-        <v>0.61172000000000004</v>
+        <v>0.34702</v>
       </c>
       <c r="E30">
         <v>0.64356000000000002</v>
@@ -3570,7 +3570,7 @@
         <v>23.014299999999999</v>
       </c>
       <c r="D31">
-        <v>596.89400000000001</v>
+        <v>251.435</v>
       </c>
       <c r="E31">
         <v>994.20500000000004</v>
@@ -3605,7 +3605,7 @@
         <v>0.78491999999999995</v>
       </c>
       <c r="D32">
-        <v>3.5508199999999999</v>
+        <v>2.6507800000000001</v>
       </c>
       <c r="E32">
         <v>4.5161800000000003</v>
@@ -3640,7 +3640,7 @@
         <v>0.63126000000000004</v>
       </c>
       <c r="D33">
-        <v>2.79684</v>
+        <v>1.8708400000000001</v>
       </c>
       <c r="E33">
         <v>3.4044599999999998</v>
@@ -3675,7 +3675,7 @@
         <v>0.60377999999999998</v>
       </c>
       <c r="D34">
-        <v>2.6124000000000001</v>
+        <v>1.72244</v>
       </c>
       <c r="E34">
         <v>3.20722</v>
